--- a/biology/Médecine/Alfred_Joseph_Clark/Alfred_Joseph_Clark.xlsx
+++ b/biology/Médecine/Alfred_Joseph_Clark/Alfred_Joseph_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Joseph Clark (19 août 1885 - 30 juillet 1941) est un pharmacologue britannique et professeur de pharmacologie à l'University College de Londres. Il est un démystificateur de remèdes frauduleux et a fait des études pionnières sur l'effet placebo de nombreux remèdes revendiqués[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Joseph Clark (19 août 1885 - 30 juillet 1941) est un pharmacologue britannique et professeur de pharmacologie à l'University College de Londres. Il est un démystificateur de remèdes frauduleux et a fait des études pionnières sur l'effet placebo de nombreux remèdes revendiqués.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né à Glastonbury, fils d'un quaker, Francis Joseph Clark de Street, Somerset. Il fait ses études à la Bootham School dans le Yorkshire et fréquente l'Université de Cambridge, obtenant un BA en 1907 et une maîtrise en 1910[2].
-Après la Première Guerre mondiale, il est brièvement employé comme professeur de pharmacologie à l'Université du Cap en Afrique du Sud, mais l'utilise comme tremplin vers le poste plus prestigieux de professeur de pharmacologie à l'University College de Londres où il travaille de 1919 à 1926, prenant ensuite le poste de professeur de matière médicale à l'Université d'Édimbourg[2].
-En 1928, il est élu membre de la Royal Society of Edinburgh, avec comme proposants James Hartley Ashworth, George Barger et James Alfred Ewing[2]. Il est élu à la Royal Society en 1931[3].
-Il siège au Conseil de recherches médicales de 1934 à 1938[4].
-Il meurt à Édimbourg le 30 juillet 1941 des suites d'une intervention chirurgicale pour une occlusion intestinale le 28 juillet[5].
-Clark sert dans les deux guerres mondiales. Pendant la Première Guerre mondiale, il rejoint le Royal Army Medical Corps et reçoit la Croix militaire en 1917 [1] pour bravoure en France[6].
-Pendant la Seconde Guerre mondiale, il conseille le gouvernement sur la guerre des gaz [2] et est l'un des nombreux hommes évacués de Dunkerque.
-Il rencontré Beatrice ("Trixie") Powell Hazell au Cap en 1918 et ils se marient en 1919[7]. Ils ont deux fils et deux filles. Son fils, David Clark, est un éminent psychiatre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né à Glastonbury, fils d'un quaker, Francis Joseph Clark de Street, Somerset. Il fait ses études à la Bootham School dans le Yorkshire et fréquente l'Université de Cambridge, obtenant un BA en 1907 et une maîtrise en 1910.
+Après la Première Guerre mondiale, il est brièvement employé comme professeur de pharmacologie à l'Université du Cap en Afrique du Sud, mais l'utilise comme tremplin vers le poste plus prestigieux de professeur de pharmacologie à l'University College de Londres où il travaille de 1919 à 1926, prenant ensuite le poste de professeur de matière médicale à l'Université d'Édimbourg.
+En 1928, il est élu membre de la Royal Society of Edinburgh, avec comme proposants James Hartley Ashworth, George Barger et James Alfred Ewing. Il est élu à la Royal Society en 1931.
+Il siège au Conseil de recherches médicales de 1934 à 1938.
+Il meurt à Édimbourg le 30 juillet 1941 des suites d'une intervention chirurgicale pour une occlusion intestinale le 28 juillet.
+Clark sert dans les deux guerres mondiales. Pendant la Première Guerre mondiale, il rejoint le Royal Army Medical Corps et reçoit la Croix militaire en 1917  pour bravoure en France.
+Pendant la Seconde Guerre mondiale, il conseille le gouvernement sur la guerre des gaz  et est l'un des nombreux hommes évacués de Dunkerque.
+Il rencontré Beatrice ("Trixie") Powell Hazell au Cap en 1918 et ils se marient en 1919. Ils ont deux fils et deux filles. Son fils, David Clark, est un éminent psychiatre.
 </t>
         </is>
       </c>
